--- a/Images/Calendar.xlsx
+++ b/Images/Calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\RodneyMcCoy\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CF05F2-FE2A-4A0C-A077-57B14A13ED25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618CD828-B57D-4BC2-B606-57FFBBC3F905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Contact Me</t>
   </si>
@@ -90,7 +90,16 @@
     <t>LCB 222</t>
   </si>
   <si>
-    <t>Meeting w/ Akil</t>
+    <t>SIAM (Biweekly)</t>
+  </si>
+  <si>
+    <t>3:30 - 4:00</t>
+  </si>
+  <si>
+    <t>GSAC</t>
+  </si>
+  <si>
+    <t>12:55 - 1:45</t>
   </si>
 </sst>
 </file>
@@ -137,7 +146,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +171,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93FF81"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -440,49 +455,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -491,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -580,19 +595,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -601,7 +604,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -649,13 +655,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -666,16 +708,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF93FF81"/>
+      <color rgb="FFFFFF71"/>
       <color rgb="FFFFCF21"/>
       <color rgb="FFFFCC00"/>
-      <color rgb="FFFFFF71"/>
       <color rgb="FFFF6D6D"/>
       <color rgb="FFB757FF"/>
       <color rgb="FF20E82E"/>
       <color rgb="FF09FF09"/>
       <color rgb="FF00DA00"/>
       <color rgb="FF8B9CFF"/>
-      <color rgb="FF6565FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -955,7 +997,7 @@
   <dimension ref="A1:P186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -970,12 +1012,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
       <c r="F1" s="13" t="s">
         <v>1</v>
       </c>
@@ -1008,10 +1050,10 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -1027,12 +1069,12 @@
       <c r="P2" s="16"/>
     </row>
     <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
       <c r="F3" s="21"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1045,10 +1087,10 @@
       <c r="P3" s="17"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="2"/>
       <c r="F4" s="21"/>
       <c r="G4" s="5"/>
@@ -1062,10 +1104,10 @@
       <c r="P4" s="17"/>
     </row>
     <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="F5" s="25"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1078,10 +1120,10 @@
       <c r="P5" s="26"/>
     </row>
     <row r="6" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="2">
         <v>0.375</v>
       </c>
@@ -1097,12 +1139,12 @@
       <c r="P6" s="17"/>
     </row>
     <row r="7" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
       <c r="F7" s="21"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1115,10 +1157,10 @@
       <c r="P7" s="17"/>
     </row>
     <row r="8" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="2"/>
       <c r="F8" s="9"/>
       <c r="G8" s="5"/>
@@ -1132,12 +1174,12 @@
       <c r="P8" s="18"/>
     </row>
     <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
       <c r="F9" s="10"/>
       <c r="G9" s="12"/>
       <c r="H9" s="11"/>
@@ -1150,10 +1192,10 @@
       <c r="P9" s="27"/>
     </row>
     <row r="10" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -1169,12 +1211,12 @@
       <c r="P10" s="18"/>
     </row>
     <row r="11" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
       <c r="F11" s="9"/>
       <c r="G11" s="5"/>
       <c r="H11" s="7"/>
@@ -1187,10 +1229,10 @@
       <c r="P11" s="18"/>
     </row>
     <row r="12" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="2"/>
       <c r="F12" s="21"/>
       <c r="G12" s="5"/>
@@ -1204,21 +1246,21 @@
       <c r="P12" s="17"/>
     </row>
     <row r="13" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="F13" s="35" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="F13" s="30" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="28"/>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="28"/>
-      <c r="J13" s="35" t="s">
+      <c r="J13" s="30" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="10"/>
@@ -1228,18 +1270,18 @@
       <c r="P13" s="27"/>
     </row>
     <row r="14" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F14" s="36"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="36"/>
+      <c r="H14" s="31"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="36"/>
+      <c r="J14" s="31"/>
       <c r="L14" s="9"/>
       <c r="M14" s="5"/>
       <c r="N14" s="7"/>
@@ -1247,15 +1289,15 @@
       <c r="P14" s="18"/>
     </row>
     <row r="15" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="F15" s="36"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="F15" s="31"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="36"/>
+      <c r="H15" s="31"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="36"/>
+      <c r="J15" s="31"/>
       <c r="L15" s="9"/>
       <c r="M15" s="5"/>
       <c r="N15" s="7"/>
@@ -1264,15 +1306,15 @@
     </row>
     <row r="16" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E16" s="2"/>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="32" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="8"/>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="32" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="37" t="s">
+      <c r="J16" s="32" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="9"/>
@@ -1300,9 +1342,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="5"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="I18" s="5"/>
       <c r="J18" s="18"/>
       <c r="L18" s="9"/>
       <c r="M18" s="5"/>
@@ -1322,7 +1362,7 @@
       <c r="O19" s="7"/>
       <c r="P19" s="18"/>
     </row>
-    <row r="20" spans="5:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="2"/>
       <c r="F20" s="9"/>
       <c r="G20" s="7"/>
@@ -1336,9 +1376,11 @@
       <c r="P20" s="18"/>
     </row>
     <row r="21" spans="5:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="56"/>
       <c r="I21" s="11"/>
       <c r="J21" s="27"/>
       <c r="L21" s="10"/>
@@ -1351,9 +1393,9 @@
       <c r="E22" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="57"/>
       <c r="I22" s="7"/>
       <c r="J22" s="18"/>
       <c r="L22" s="9"/>
@@ -1363,9 +1405,9 @@
       <c r="P22" s="18"/>
     </row>
     <row r="23" spans="5:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="57"/>
       <c r="I23" s="7"/>
       <c r="J23" s="18"/>
       <c r="L23" s="9"/>
@@ -1375,9 +1417,9 @@
       <c r="P23" s="18"/>
     </row>
     <row r="24" spans="5:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="57"/>
       <c r="I24" s="7"/>
       <c r="J24" s="18"/>
       <c r="L24" s="9"/>
@@ -1387,9 +1429,11 @@
       <c r="P24" s="18"/>
     </row>
     <row r="25" spans="5:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F25" s="21"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="28"/>
       <c r="I25" s="12"/>
       <c r="J25" s="26"/>
       <c r="L25" s="25"/>
@@ -1402,7 +1446,7 @@
       <c r="E26" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="F26" s="52" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="8"/>
@@ -1416,7 +1460,7 @@
       <c r="P26" s="17"/>
     </row>
     <row r="27" spans="5:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="54"/>
+      <c r="F27" s="59"/>
       <c r="G27" s="8"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1428,7 +1472,7 @@
       <c r="P27" s="17"/>
     </row>
     <row r="28" spans="5:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="54" t="s">
+      <c r="F28" s="59" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="8"/>
@@ -1442,7 +1486,7 @@
       <c r="P28" s="17"/>
     </row>
     <row r="29" spans="5:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="53" t="s">
         <v>19</v>
       </c>
       <c r="G29" s="28"/>
@@ -1461,13 +1505,13 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="29"/>
-      <c r="H30" s="32" t="s">
+      <c r="H30" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="32" t="s">
+      <c r="I30" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="62" t="s">
         <v>13</v>
       </c>
       <c r="L30" s="9"/>
@@ -1476,12 +1520,12 @@
       <c r="O30" s="5"/>
       <c r="P30" s="17"/>
     </row>
-    <row r="31" spans="5:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F31" s="9"/>
       <c r="G31" s="29"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
       <c r="L31" s="9"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -1489,11 +1533,13 @@
       <c r="P31" s="17"/>
     </row>
     <row r="32" spans="5:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="21"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
       <c r="L32" s="21"/>
       <c r="M32" s="7"/>
       <c r="N32" s="5"/>
@@ -1501,15 +1547,17 @@
       <c r="P32" s="17"/>
     </row>
     <row r="33" spans="5:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F33" s="25"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="34" t="s">
+      <c r="F33" s="51"/>
+      <c r="G33" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="34" t="s">
+      <c r="I33" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="34" t="s">
+      <c r="J33" s="64" t="s">
         <v>14</v>
       </c>
       <c r="L33" s="25"/>

--- a/Images/Calendar.xlsx
+++ b/Images/Calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\RodneyMcCoy\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618CD828-B57D-4BC2-B606-57FFBBC3F905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DE6C50-6303-44E0-B02E-914EB8E93BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +145,12 @@
       <name val="Lucida Bright"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -506,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -611,6 +617,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -655,49 +706,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,7 +1006,7 @@
   <dimension ref="A1:P186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1012,12 +1021,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="F1" s="13" t="s">
         <v>1</v>
       </c>
@@ -1050,10 +1059,10 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -1069,12 +1078,12 @@
       <c r="P2" s="16"/>
     </row>
     <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
       <c r="F3" s="21"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1087,10 +1096,10 @@
       <c r="P3" s="17"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="2"/>
       <c r="F4" s="21"/>
       <c r="G4" s="5"/>
@@ -1104,10 +1113,10 @@
       <c r="P4" s="17"/>
     </row>
     <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
       <c r="F5" s="25"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1120,10 +1129,10 @@
       <c r="P5" s="26"/>
     </row>
     <row r="6" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="2">
         <v>0.375</v>
       </c>
@@ -1139,12 +1148,12 @@
       <c r="P6" s="17"/>
     </row>
     <row r="7" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
       <c r="F7" s="21"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1157,10 +1166,10 @@
       <c r="P7" s="17"/>
     </row>
     <row r="8" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="46"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="2"/>
       <c r="F8" s="9"/>
       <c r="G8" s="5"/>
@@ -1174,12 +1183,12 @@
       <c r="P8" s="18"/>
     </row>
     <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
       <c r="F9" s="10"/>
       <c r="G9" s="12"/>
       <c r="H9" s="11"/>
@@ -1192,10 +1201,10 @@
       <c r="P9" s="27"/>
     </row>
     <row r="10" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -1211,12 +1220,12 @@
       <c r="P10" s="18"/>
     </row>
     <row r="11" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
       <c r="F11" s="9"/>
       <c r="G11" s="5"/>
       <c r="H11" s="7"/>
@@ -1229,10 +1238,10 @@
       <c r="P11" s="18"/>
     </row>
     <row r="12" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="2"/>
       <c r="F12" s="21"/>
       <c r="G12" s="5"/>
@@ -1246,12 +1255,12 @@
       <c r="P12" s="17"/>
     </row>
     <row r="13" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
       <c r="F13" s="30" t="s">
         <v>11</v>
       </c>
@@ -1270,10 +1279,10 @@
       <c r="P13" s="27"/>
     </row>
     <row r="14" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="2">
         <v>0.45833333333333331</v>
       </c>
@@ -1289,10 +1298,10 @@
       <c r="P14" s="18"/>
     </row>
     <row r="15" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
       <c r="F15" s="31"/>
       <c r="G15" s="8"/>
       <c r="H15" s="31"/>
@@ -1376,11 +1385,11 @@
       <c r="P20" s="18"/>
     </row>
     <row r="21" spans="5:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="54"/>
+      <c r="F21" s="39"/>
       <c r="G21" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="56"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="11"/>
       <c r="J21" s="27"/>
       <c r="L21" s="10"/>
@@ -1393,9 +1402,9 @@
       <c r="E22" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F22" s="55"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="34"/>
-      <c r="H22" s="57"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="7"/>
       <c r="J22" s="18"/>
       <c r="L22" s="9"/>
@@ -1405,9 +1414,9 @@
       <c r="P22" s="18"/>
     </row>
     <row r="23" spans="5:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="55"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="34"/>
-      <c r="H23" s="57"/>
+      <c r="H23" s="42"/>
       <c r="I23" s="7"/>
       <c r="J23" s="18"/>
       <c r="L23" s="9"/>
@@ -1416,10 +1425,12 @@
       <c r="O23" s="7"/>
       <c r="P23" s="18"/>
     </row>
-    <row r="24" spans="5:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="55"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="57"/>
+    <row r="24" spans="5:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="40"/>
+      <c r="G24" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="42"/>
       <c r="I24" s="7"/>
       <c r="J24" s="18"/>
       <c r="L24" s="9"/>
@@ -1429,10 +1440,8 @@
       <c r="P24" s="18"/>
     </row>
     <row r="25" spans="5:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F25" s="50"/>
-      <c r="G25" s="58" t="s">
-        <v>24</v>
-      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="28"/>
       <c r="I25" s="12"/>
       <c r="J25" s="26"/>
@@ -1446,7 +1455,7 @@
       <c r="E26" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F26" s="52" t="s">
+      <c r="F26" s="37" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="8"/>
@@ -1460,7 +1469,7 @@
       <c r="P26" s="17"/>
     </row>
     <row r="27" spans="5:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="59"/>
+      <c r="F27" s="44"/>
       <c r="G27" s="8"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1472,7 +1481,7 @@
       <c r="P27" s="17"/>
     </row>
     <row r="28" spans="5:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="59" t="s">
+      <c r="F28" s="44" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="8"/>
@@ -1486,7 +1495,7 @@
       <c r="P28" s="17"/>
     </row>
     <row r="29" spans="5:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F29" s="53" t="s">
+      <c r="F29" s="38" t="s">
         <v>19</v>
       </c>
       <c r="G29" s="28"/>
@@ -1505,13 +1514,13 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="29"/>
-      <c r="H30" s="62" t="s">
+      <c r="H30" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="62" t="s">
+      <c r="I30" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J30" s="62" t="s">
+      <c r="J30" s="47" t="s">
         <v>13</v>
       </c>
       <c r="L30" s="9"/>
@@ -1523,9 +1532,9 @@
     <row r="31" spans="5:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F31" s="9"/>
       <c r="G31" s="29"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
       <c r="L31" s="9"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -1533,13 +1542,13 @@
       <c r="P31" s="17"/>
     </row>
     <row r="32" spans="5:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="50"/>
-      <c r="G32" s="60" t="s">
+      <c r="F32" s="35"/>
+      <c r="G32" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
       <c r="L32" s="21"/>
       <c r="M32" s="7"/>
       <c r="N32" s="5"/>
@@ -1547,17 +1556,17 @@
       <c r="P32" s="17"/>
     </row>
     <row r="33" spans="5:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F33" s="51"/>
-      <c r="G33" s="61" t="s">
+      <c r="F33" s="36"/>
+      <c r="G33" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="64" t="s">
+      <c r="H33" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="64" t="s">
+      <c r="I33" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="64" t="s">
+      <c r="J33" s="49" t="s">
         <v>14</v>
       </c>
       <c r="L33" s="25"/>
@@ -1777,6 +1786,7 @@
     <mergeCell ref="A5:D6"/>
     <mergeCell ref="A9:D10"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
